--- a/DataDictionary-ElectricMotorcyle.xlsx
+++ b/DataDictionary-ElectricMotorcyle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Business Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Business Analysis\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45C22E8-3FEC-4DE2-AF99-A5D297152D37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDE5A4A-AFB7-405F-BCB9-5A24524F8AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9732" yWindow="1536" windowWidth="8160" windowHeight="8994" xr2:uid="{08CE17C7-E537-4B0A-AB81-E416D1E8F13A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{08CE17C7-E537-4B0A-AB81-E416D1E8F13A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="65">
   <si>
     <t>Table:</t>
   </si>
@@ -174,15 +174,9 @@
     <t>order id</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>inventory</t>
   </si>
   <si>
-    <t>item-id</t>
-  </si>
-  <si>
     <t>in-stock</t>
   </si>
   <si>
@@ -211,6 +205,27 @@
   </si>
   <si>
     <t>Cust_account_info</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>Order_Items</t>
+  </si>
+  <si>
+    <t>amount_ordered</t>
+  </si>
+  <si>
+    <t>amount_ordred</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>is_active</t>
   </si>
 </sst>
 </file>
@@ -600,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60079E61-9700-414A-977B-761C4224DDB5}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -967,7 +982,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1058,7 +1073,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1069,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1100,13 +1115,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
@@ -1126,22 +1141,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>17</v>
@@ -1151,37 +1166,17 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="2">
-        <v>25</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1238,16 +1233,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -1263,89 +1258,86 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
+      <c r="A34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6">
+        <v>25</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>13</v>
@@ -1353,22 +1345,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>17</v>
@@ -1378,86 +1370,89 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="2">
-        <v>25</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>13</v>
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>59</v>
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>8</v>
+      <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>13</v>
@@ -1465,27 +1460,165 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2">
         <v>25</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="2">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <v>25</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>13</v>
       </c>
     </row>
